--- a/K-Means_Clustring_ShoppingIndex.xlsx
+++ b/K-Means_Clustring_ShoppingIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/Jupyter/PySpark_Python-ML-Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E8727-5240-6A40-A859-5454D80FD387}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784A6EE-05AA-7048-A2FC-5A066C255DC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38180" yWindow="1260" windowWidth="27640" windowHeight="19120" xr2:uid="{62656E16-BF19-5A46-B3DD-0B2E238336A0}"/>
   </bookViews>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
